--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoDSDwSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Calculations" sheetId="3" r:id="rId2"/>
     <sheet name="EoDSDwSP" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Source:</t>
   </si>
@@ -51,9 +56,6 @@
     <t>EoDSDwSP Elasticity of Distributed Solar Deployment wrt Subsidy Perc</t>
   </si>
   <si>
-    <t>Elasticity</t>
-  </si>
-  <si>
     <t>of system cost</t>
   </si>
   <si>
@@ -71,11 +73,23 @@
   <si>
     <t>Rural Residential</t>
   </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Elasticities intended to reflect change in deployment with changing</t>
+  </si>
+  <si>
+    <t>distributed solar price (through subsidies).</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -147,6 +161,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -194,7 +211,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,9 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -478,7 +497,19 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,13 +536,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -554,7 +585,7 @@
         <v>0.3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +624,9 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -602,12 +635,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6">
         <f>Calculations!B9</f>
@@ -616,7 +649,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6">
         <f>B2</f>
@@ -890,13 +923,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D325FF95-5118-4E22-85C4-4F0A40CCB726}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06D6376A-A146-449C-84CC-2553E6756CC1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE4997FF-E284-4261-BB6A-1F6261150C05}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D591534E-0CB4-4A46-B0F1-96B4FC780E17}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A8FD9FE-A8DC-413D-A281-89EFEBE469DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB452A6-235F-490D-B2ED-C460EE4753DD}"/>
 </file>
--- a/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
+++ b/InputData/bldgs/EoDSDwSP/Elasticity of Dist Solar Deployment wrt Subsidy Perc.xlsx
@@ -1,99 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\EoDSDwSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8611A75BC01DAEF047A05DB6EE465662C004B26E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0D41C6C7-93F3-4DBE-BE2C-1915421DAFA0}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="24915" windowHeight="12090" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="3" r:id="rId2"/>
-    <sheet name="EoDSDwSP" sheetId="4" r:id="rId3"/>
+    <sheet name="EoDSDwSP" sheetId="4" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
+    <t>EoDSDwSP Elasticity of Distributed Solar Deployment wrt Subsidy Perc</t>
+  </si>
+  <si>
     <t>Source:</t>
   </si>
   <si>
+    <t>Bloomberg New Energy Finance</t>
+  </si>
+  <si>
+    <t>How extending the investment tax credit would affect US solar build</t>
+  </si>
+  <si>
+    <t>http://www.seia.org/sites/default/files/resources/BNEF_SEIA%20Solar%20Forecast_15%20September%202015.pdf</t>
+  </si>
+  <si>
+    <t>Page 3 ("Residential") and Page 4 ("Commercial and Industrial")</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Elasticities intended to reflect change in deployment with changing</t>
+  </si>
+  <si>
+    <t>distributed solar price (through subsidies).</t>
+  </si>
+  <si>
+    <t>Elasticity (dimensionless)</t>
+  </si>
+  <si>
+    <t>Urban Residential</t>
+  </si>
+  <si>
+    <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>BAU Deployment 2015-2022 (GW)</t>
+  </si>
+  <si>
+    <t>Deployment with Extended ITC 2015-2022 (GW)</t>
+  </si>
+  <si>
+    <t>% Increase due to ITC</t>
+  </si>
+  <si>
     <t>Residential</t>
   </si>
   <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>ITC Incentive Level</t>
   </si>
   <si>
+    <t>of system cost</t>
+  </si>
+  <si>
     <t>Elasticity of Distributed Solar Deployment with respect to ITC Incentive Level</t>
   </si>
-  <si>
-    <t>Bloomberg New Energy Finance</t>
-  </si>
-  <si>
-    <t>How extending the investment tax credit would affect US solar build</t>
-  </si>
-  <si>
-    <t>http://www.seia.org/sites/default/files/resources/BNEF_SEIA%20Solar%20Forecast_15%20September%202015.pdf</t>
-  </si>
-  <si>
-    <t>Page 3 ("Residential") and Page 4 ("Commercial and Industrial")</t>
-  </si>
-  <si>
-    <t>EoDSDwSP Elasticity of Distributed Solar Deployment wrt Subsidy Perc</t>
-  </si>
-  <si>
-    <t>of system cost</t>
-  </si>
-  <si>
-    <t>% Increase due to ITC</t>
-  </si>
-  <si>
-    <t>BAU Deployment 2015-2022 (GW)</t>
-  </si>
-  <si>
-    <t>Deployment with Extended ITC 2015-2022 (GW)</t>
-  </si>
-  <si>
-    <t>Urban Residential</t>
-  </si>
-  <si>
-    <t>Rural Residential</t>
-  </si>
-  <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>Elasticities intended to reflect change in deployment with changing</t>
-  </si>
-  <si>
-    <t>distributed solar price (through subsidies).</t>
-  </si>
-  <si>
-    <t>Elasticity (dimensionless)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +253,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,6 +305,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,61 +497,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -518,107 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>15.7</v>
-      </c>
-      <c r="C2">
-        <v>22.6</v>
-      </c>
-      <c r="D2" s="4">
-        <f>(C2-B2)/B2</f>
-        <v>0.43949044585987279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>12.9</v>
-      </c>
-      <c r="C3">
-        <v>17.8</v>
-      </c>
-      <c r="D3" s="4">
-        <f>(C3-B3)/B3</f>
-        <v>0.37984496124031009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <f>D2/$A$6</f>
-        <v>1.4649681528662426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6">
-        <f>D3/$A$6</f>
-        <v>1.2661498708010337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -628,37 +571,37 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6">
         <f>Calculations!B9</f>
         <v>1.4649681528662426</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6">
         <f>B2</f>
         <v>1.4649681528662426</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <f>Calculations!B10</f>
@@ -670,7 +613,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>15.7</v>
+      </c>
+      <c r="C2">
+        <v>22.6</v>
+      </c>
+      <c r="D2" s="4">
+        <f>(C2-B2)/B2</f>
+        <v>0.43949044585987279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>12.9</v>
+      </c>
+      <c r="C3">
+        <v>17.8</v>
+      </c>
+      <c r="D3" s="4">
+        <f>(C3-B3)/B3</f>
+        <v>0.37984496124031009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6">
+        <f>D2/$A$6</f>
+        <v>1.4649681528662426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="6">
+        <f>D3/$A$6</f>
+        <v>1.2661498708010337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -904,26 +965,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06D6376A-A146-449C-84CC-2553E6756CC1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB452A6-235F-490D-B2ED-C460EE4753DD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,5 +974,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CB452A6-235F-490D-B2ED-C460EE4753DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06D6376A-A146-449C-84CC-2553E6756CC1}"/>
 </file>